--- a/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/159.xlsx
+++ b/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/159.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D28BEBD-7446-427C-B447-C36237B98296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CB7E59-0D33-407B-BA09-D07B94ADB95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral_não" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -1027,6 +1027,9 @@
   </si>
   <si>
     <t>C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\138.xlsx</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\OrcamentosParaClientes\São José - Páscoa\159.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1445,6 +1448,9 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
+      <c r="K2" t="s">
+        <v>325</v>
+      </c>
       <c r="L2">
         <v>500</v>
       </c>
